--- a/Noutati/Nuclear Blast/NuclearBlastNoutati.xlsx
+++ b/Noutati/Nuclear Blast/NuclearBlastNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Nuclear Blast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAFD784-4E26-4808-B061-A9D0E00196FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D697FE78-B43B-4976-8DBF-B71A329514F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Noutati/Nuclear Blast/NuclearBlastNoutati.xlsx
+++ b/Noutati/Nuclear Blast/NuclearBlastNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Nuclear Blast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D697FE78-B43B-4976-8DBF-B71A329514F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F66183E-0217-428B-A542-F081B48B1564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="3480" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Cod Bare</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>Cealalta baracuda</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>23.02.2020</t>
   </si>
 </sst>
 </file>
@@ -399,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,6 +486,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5959595959599</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
